--- a/data/pca/factorExposure/factorExposure_2018-10-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0476951178978865</v>
+        <v>0.03815391332730191</v>
       </c>
       <c r="C2">
-        <v>-0.05544309475952275</v>
+        <v>-0.004497972813615922</v>
       </c>
       <c r="D2">
-        <v>-0.03695666787602396</v>
+        <v>-0.0156174844535194</v>
       </c>
       <c r="E2">
-        <v>0.07009444953403074</v>
+        <v>0.01678950282420879</v>
       </c>
       <c r="F2">
-        <v>0.1350512363440643</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03192431446257422</v>
+      </c>
+      <c r="G2">
+        <v>0.08161220434743766</v>
+      </c>
+      <c r="H2">
+        <v>-0.02525489762428815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1506584620488884</v>
+        <v>0.09291220774944725</v>
       </c>
       <c r="C3">
-        <v>-0.01718879944076591</v>
+        <v>0.0390353041455599</v>
       </c>
       <c r="D3">
-        <v>-0.04010206263130704</v>
+        <v>-0.03169663960818733</v>
       </c>
       <c r="E3">
-        <v>0.1161645218371731</v>
+        <v>0.01015985530047714</v>
       </c>
       <c r="F3">
-        <v>0.3617973815803382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.006198229133110486</v>
+      </c>
+      <c r="G3">
+        <v>0.2813805239708694</v>
+      </c>
+      <c r="H3">
+        <v>-0.05572877344311598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05420788361105187</v>
+        <v>0.05020465520813339</v>
       </c>
       <c r="C4">
-        <v>-0.03854203249581425</v>
+        <v>0.007680065394583886</v>
       </c>
       <c r="D4">
-        <v>-0.003923559093605241</v>
+        <v>-0.02786974292642747</v>
       </c>
       <c r="E4">
-        <v>0.08600083261174335</v>
+        <v>-0.01722647278416347</v>
       </c>
       <c r="F4">
-        <v>0.05547920265940924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06754249150450091</v>
+      </c>
+      <c r="G4">
+        <v>0.04085865152992142</v>
+      </c>
+      <c r="H4">
+        <v>-0.03074095754379795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.009547321091852105</v>
+        <v>0.03059813785578899</v>
       </c>
       <c r="C6">
-        <v>-0.0007321757018351469</v>
+        <v>0.003693511261292708</v>
       </c>
       <c r="D6">
-        <v>-0.009505375735437872</v>
+        <v>-0.03046911498619624</v>
       </c>
       <c r="E6">
-        <v>0.003769306002070674</v>
+        <v>-0.003486854751915158</v>
       </c>
       <c r="F6">
-        <v>0.01052141714498151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.03774110189736661</v>
+      </c>
+      <c r="G6">
+        <v>0.004240150112074912</v>
+      </c>
+      <c r="H6">
+        <v>-0.05196799483224888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02935315633983908</v>
+        <v>0.02435221791291561</v>
       </c>
       <c r="C7">
-        <v>-0.01966138636922779</v>
+        <v>0.003810457953577161</v>
       </c>
       <c r="D7">
-        <v>-0.02840502031918092</v>
+        <v>-0.01743379133610159</v>
       </c>
       <c r="E7">
-        <v>0.04316172586319394</v>
+        <v>-0.0345250665898227</v>
       </c>
       <c r="F7">
-        <v>0.06616491496474286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02798493023977849</v>
+      </c>
+      <c r="G7">
+        <v>0.03415851103395418</v>
+      </c>
+      <c r="H7">
+        <v>-0.02119315436050457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01346815820648789</v>
+        <v>0.004424293658804248</v>
       </c>
       <c r="C8">
-        <v>-0.01024445816204936</v>
+        <v>0.002741288197677362</v>
       </c>
       <c r="D8">
-        <v>0.0003790356600314828</v>
+        <v>-0.01862964767174101</v>
       </c>
       <c r="E8">
-        <v>0.08200955838640182</v>
+        <v>-0.01124683575446975</v>
       </c>
       <c r="F8">
-        <v>0.08800278595545506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.03152330927677955</v>
+      </c>
+      <c r="G8">
+        <v>0.05308049656253359</v>
+      </c>
+      <c r="H8">
+        <v>-0.01368834909166583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04403302193414195</v>
+        <v>0.04004803519561528</v>
       </c>
       <c r="C9">
-        <v>-0.0305117829033385</v>
+        <v>0.009547404251735272</v>
       </c>
       <c r="D9">
-        <v>0.01143772932920919</v>
+        <v>-0.02421555791080472</v>
       </c>
       <c r="E9">
-        <v>0.086245062099</v>
+        <v>-0.01705099071506875</v>
       </c>
       <c r="F9">
-        <v>0.06677934344677006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.04515048477320444</v>
+      </c>
+      <c r="G9">
+        <v>0.06061071236604382</v>
+      </c>
+      <c r="H9">
+        <v>-0.03524033153374963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04865368356870721</v>
+        <v>0.06803642593481088</v>
       </c>
       <c r="C10">
-        <v>-0.05223973472992011</v>
+        <v>0.03654244915299185</v>
       </c>
       <c r="D10">
-        <v>0.03052320400507014</v>
+        <v>0.1500382516866426</v>
       </c>
       <c r="E10">
-        <v>-0.1151553402990051</v>
+        <v>0.0152426731054972</v>
       </c>
       <c r="F10">
-        <v>0.07456175833326391</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0842553693627506</v>
+      </c>
+      <c r="G10">
+        <v>0.04242621567421142</v>
+      </c>
+      <c r="H10">
+        <v>-0.01055409958057131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03406618832665917</v>
+        <v>0.02409425221452609</v>
       </c>
       <c r="C11">
-        <v>-0.0119095353699016</v>
+        <v>0.01498724528553006</v>
       </c>
       <c r="D11">
-        <v>-0.0147582709815815</v>
+        <v>-0.03105393664918241</v>
       </c>
       <c r="E11">
-        <v>0.03564903295579316</v>
+        <v>0.005106050976332817</v>
       </c>
       <c r="F11">
-        <v>0.03544340050794056</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02547076669951603</v>
+      </c>
+      <c r="G11">
+        <v>0.03168564285624178</v>
+      </c>
+      <c r="H11">
+        <v>-0.03068216401025282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04079126701777946</v>
+        <v>0.03264881640973074</v>
       </c>
       <c r="C12">
-        <v>-0.01192493997371528</v>
+        <v>0.01472369558182426</v>
       </c>
       <c r="D12">
-        <v>-0.005218087807292807</v>
+        <v>-0.03054003188948706</v>
       </c>
       <c r="E12">
-        <v>0.04638703918879989</v>
+        <v>-0.005046530975341833</v>
       </c>
       <c r="F12">
-        <v>0.02057133937709598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.02766558115284383</v>
+      </c>
+      <c r="G12">
+        <v>0.005848414196918978</v>
+      </c>
+      <c r="H12">
+        <v>-0.01658495844452134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.026854626997867</v>
+        <v>0.03026372503060324</v>
       </c>
       <c r="C13">
-        <v>-0.02270092300985647</v>
+        <v>-0.006240423671550556</v>
       </c>
       <c r="D13">
-        <v>-0.03426399620419519</v>
+        <v>-0.00508298904857307</v>
       </c>
       <c r="E13">
-        <v>0.0366808918110482</v>
+        <v>0.01653455994051472</v>
       </c>
       <c r="F13">
-        <v>0.08696753563842997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0232146342944424</v>
+      </c>
+      <c r="G13">
+        <v>0.06279587425937597</v>
+      </c>
+      <c r="H13">
+        <v>-0.03082669323119852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01569271985557621</v>
+        <v>0.0176384158769032</v>
       </c>
       <c r="C14">
-        <v>-0.02289803320440862</v>
+        <v>0.004562716806191077</v>
       </c>
       <c r="D14">
-        <v>-0.005932818371322612</v>
+        <v>-0.002964827549911681</v>
       </c>
       <c r="E14">
-        <v>0.04547772546165439</v>
+        <v>-0.006155601916025918</v>
       </c>
       <c r="F14">
-        <v>0.0610378428981854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02877262403166829</v>
+      </c>
+      <c r="G14">
+        <v>0.04014894271722785</v>
+      </c>
+      <c r="H14">
+        <v>0.01735676323776332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02669013586383703</v>
+        <v>0.02401653871659762</v>
       </c>
       <c r="C16">
-        <v>-0.0125233353781211</v>
+        <v>0.01488774689756874</v>
       </c>
       <c r="D16">
-        <v>-0.01350176610642803</v>
+        <v>-0.03026756287301476</v>
       </c>
       <c r="E16">
-        <v>0.03601741381365342</v>
+        <v>0.0005181204884636565</v>
       </c>
       <c r="F16">
-        <v>0.03489605741318575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02744662188209701</v>
+      </c>
+      <c r="G16">
+        <v>0.02393061996610304</v>
+      </c>
+      <c r="H16">
+        <v>-0.02350185172778367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04044036268619426</v>
+        <v>0.03566475051444114</v>
       </c>
       <c r="C19">
-        <v>-0.01518770347295628</v>
+        <v>0.009030795937955692</v>
       </c>
       <c r="D19">
-        <v>-0.02360326723291785</v>
+        <v>-0.01110811969147794</v>
       </c>
       <c r="E19">
-        <v>0.05143616097098968</v>
+        <v>0.003649809849809526</v>
       </c>
       <c r="F19">
-        <v>0.09455847939031407</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.03676767504154302</v>
+      </c>
+      <c r="G19">
+        <v>0.06535536551418555</v>
+      </c>
+      <c r="H19">
+        <v>-0.04497845902446358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003502993950427155</v>
+        <v>0.01140040295840241</v>
       </c>
       <c r="C20">
-        <v>-0.01796286856353599</v>
+        <v>-0.004122501792002835</v>
       </c>
       <c r="D20">
-        <v>-0.008017468921745029</v>
+        <v>-0.01042628699504552</v>
       </c>
       <c r="E20">
-        <v>0.05233741275632318</v>
+        <v>-0.002218393049741973</v>
       </c>
       <c r="F20">
-        <v>0.05910037846966835</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02086268643194812</v>
+      </c>
+      <c r="G20">
+        <v>0.04905084810547306</v>
+      </c>
+      <c r="H20">
+        <v>0.007908918323925509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.002462335940147244</v>
+        <v>0.02306444338316864</v>
       </c>
       <c r="C21">
-        <v>-0.0003044757601040019</v>
+        <v>-0.001105785235275588</v>
       </c>
       <c r="D21">
-        <v>-0.01448688611985671</v>
+        <v>-0.0009279206708364841</v>
       </c>
       <c r="E21">
-        <v>0.04632271057681684</v>
+        <v>-0.01065165231178423</v>
       </c>
       <c r="F21">
-        <v>0.085907831288542</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01212181050248516</v>
+      </c>
+      <c r="G21">
+        <v>0.05662627977607138</v>
+      </c>
+      <c r="H21">
+        <v>-0.0154254414931378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02892779133031363</v>
+        <v>0.02450036435630108</v>
       </c>
       <c r="C24">
-        <v>-0.01134239540998744</v>
+        <v>0.009954968214800941</v>
       </c>
       <c r="D24">
-        <v>-0.009857282014295364</v>
+        <v>-0.02818327572905095</v>
       </c>
       <c r="E24">
-        <v>0.0313021555366669</v>
+        <v>0.0002319784590676421</v>
       </c>
       <c r="F24">
-        <v>0.03887731883207825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02283641831867221</v>
+      </c>
+      <c r="G24">
+        <v>0.02638734167796533</v>
+      </c>
+      <c r="H24">
+        <v>-0.03139037302263388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03094578108613322</v>
+        <v>0.03427541588687414</v>
       </c>
       <c r="C25">
-        <v>-0.01030263544209903</v>
+        <v>0.009951536409402722</v>
       </c>
       <c r="D25">
-        <v>-0.007591998266840186</v>
+        <v>-0.02129846627716194</v>
       </c>
       <c r="E25">
-        <v>0.03511264930509615</v>
+        <v>-3.514245083141823e-05</v>
       </c>
       <c r="F25">
-        <v>0.0419090459079877</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02714770264534948</v>
+      </c>
+      <c r="G25">
+        <v>0.03189126471877906</v>
+      </c>
+      <c r="H25">
+        <v>-0.03418401734667882</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02051541219963061</v>
+        <v>0.02212100315368732</v>
       </c>
       <c r="C26">
-        <v>-0.001140390555760788</v>
+        <v>-0.01354247870660573</v>
       </c>
       <c r="D26">
-        <v>-0.03743507653757162</v>
+        <v>-0.009951921199318923</v>
       </c>
       <c r="E26">
-        <v>0.04966272468489487</v>
+        <v>0.006464632708873297</v>
       </c>
       <c r="F26">
-        <v>0.05644434552063629</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.008122289644019867</v>
+      </c>
+      <c r="G26">
+        <v>0.03766850102323574</v>
+      </c>
+      <c r="H26">
+        <v>-0.004585356570230098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07661181671188426</v>
+        <v>0.03442932380404626</v>
       </c>
       <c r="C27">
-        <v>-0.05269856342588969</v>
+        <v>0.02158606612984977</v>
       </c>
       <c r="D27">
-        <v>0.002089933359193163</v>
+        <v>-0.003881062683822724</v>
       </c>
       <c r="E27">
-        <v>0.05672568801949004</v>
+        <v>-0.001891871007066978</v>
       </c>
       <c r="F27">
-        <v>0.05964980295358124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.02752877805935613</v>
+      </c>
+      <c r="G27">
+        <v>0.0284313256649936</v>
+      </c>
+      <c r="H27">
+        <v>-0.002399042805455755</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06721765846220837</v>
+        <v>0.1052005861915583</v>
       </c>
       <c r="C28">
-        <v>-0.06566578143045573</v>
+        <v>0.04156578874792811</v>
       </c>
       <c r="D28">
-        <v>0.05929873455426126</v>
+        <v>0.2244575333644677</v>
       </c>
       <c r="E28">
-        <v>-0.1875726578544038</v>
+        <v>0.01622410996767895</v>
       </c>
       <c r="F28">
-        <v>0.07899344816659816</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.1213140164857643</v>
+      </c>
+      <c r="G28">
+        <v>0.02565400531145973</v>
+      </c>
+      <c r="H28">
+        <v>0.002307848405392388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0220992716730056</v>
+        <v>0.02183072362124031</v>
       </c>
       <c r="C29">
-        <v>-0.02283729020574817</v>
+        <v>0.007332940304667382</v>
       </c>
       <c r="D29">
-        <v>-0.001738443670632316</v>
+        <v>-0.00486731509002753</v>
       </c>
       <c r="E29">
-        <v>0.06004628519467491</v>
+        <v>-0.007137343921205824</v>
       </c>
       <c r="F29">
-        <v>0.04836487461786455</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03045594696272978</v>
+      </c>
+      <c r="G29">
+        <v>0.03360948856873552</v>
+      </c>
+      <c r="H29">
+        <v>0.01531152609709228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08625453919989599</v>
+        <v>0.06323198234545384</v>
       </c>
       <c r="C30">
-        <v>-0.05861516777004471</v>
+        <v>0.01342198255679269</v>
       </c>
       <c r="D30">
-        <v>-0.04057528832976382</v>
+        <v>-0.049396469472481</v>
       </c>
       <c r="E30">
-        <v>0.09830422759339538</v>
+        <v>0.04156612674292667</v>
       </c>
       <c r="F30">
-        <v>0.06987028524760225</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.0776477770432068</v>
+      </c>
+      <c r="G30">
+        <v>0.0682366340413033</v>
+      </c>
+      <c r="H30">
+        <v>-0.0495981438306388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05720988819736061</v>
+        <v>0.05239853065565248</v>
       </c>
       <c r="C31">
-        <v>-0.02281584177032682</v>
+        <v>0.02639177209696131</v>
       </c>
       <c r="D31">
-        <v>-0.04353104198817396</v>
+        <v>-0.01530775032757909</v>
       </c>
       <c r="E31">
-        <v>0.02440960906389872</v>
+        <v>0.01178334209624588</v>
       </c>
       <c r="F31">
-        <v>0.03593239259583282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02039676601796163</v>
+      </c>
+      <c r="G31">
+        <v>0.01611440636178178</v>
+      </c>
+      <c r="H31">
+        <v>0.01321578034045904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01935225492943041</v>
+        <v>0.008815427461544907</v>
       </c>
       <c r="C32">
-        <v>-0.02358774951455626</v>
+        <v>0.01717645840642233</v>
       </c>
       <c r="D32">
-        <v>-0.002726364094080951</v>
+        <v>-0.001236550313739895</v>
       </c>
       <c r="E32">
-        <v>0.09453098929081714</v>
+        <v>-0.01724333341860815</v>
       </c>
       <c r="F32">
-        <v>0.06923174678420377</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.05017567022225697</v>
+      </c>
+      <c r="G32">
+        <v>0.04470806485374686</v>
+      </c>
+      <c r="H32">
+        <v>-0.04306927715862414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05233179771347161</v>
+        <v>0.04068071173597709</v>
       </c>
       <c r="C33">
-        <v>-0.00590382868262828</v>
+        <v>0.01008307207393806</v>
       </c>
       <c r="D33">
-        <v>-0.04529972184674487</v>
+        <v>-0.03078931445864386</v>
       </c>
       <c r="E33">
-        <v>0.06736360892830336</v>
+        <v>0.0237516481230804</v>
       </c>
       <c r="F33">
-        <v>0.08627113860267127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01729171345317378</v>
+      </c>
+      <c r="G33">
+        <v>0.05849363524672944</v>
+      </c>
+      <c r="H33">
+        <v>-0.02408683490640229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03087854891020984</v>
+        <v>0.02564650034750268</v>
       </c>
       <c r="C34">
-        <v>-0.01795332887713903</v>
+        <v>0.02354589389651857</v>
       </c>
       <c r="D34">
-        <v>-0.01199096234050859</v>
+        <v>-0.02618596354979045</v>
       </c>
       <c r="E34">
-        <v>0.03939586466674211</v>
+        <v>-0.003677352266168649</v>
       </c>
       <c r="F34">
-        <v>0.04270606582269348</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.0286920324760664</v>
+      </c>
+      <c r="G34">
+        <v>0.02550419653307866</v>
+      </c>
+      <c r="H34">
+        <v>-0.03017983414530985</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01229559942259592</v>
+        <v>0.01825756321034061</v>
       </c>
       <c r="C36">
-        <v>-0.009867839953581989</v>
+        <v>-0.001277022491296786</v>
       </c>
       <c r="D36">
-        <v>-0.0003841675253897433</v>
+        <v>0.00197077104958681</v>
       </c>
       <c r="E36">
-        <v>0.02813025534807051</v>
+        <v>-0.002726524177677146</v>
       </c>
       <c r="F36">
-        <v>0.03162233964427585</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.007116148624786321</v>
+      </c>
+      <c r="G36">
+        <v>0.02243475752512465</v>
+      </c>
+      <c r="H36">
+        <v>-0.0001272594225583085</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.00640918965559752</v>
+        <v>0.01351418739570382</v>
       </c>
       <c r="C38">
-        <v>0.001975386352520801</v>
+        <v>0.01802578409957596</v>
       </c>
       <c r="D38">
-        <v>0.01516706696389964</v>
+        <v>0.0001883220166804324</v>
       </c>
       <c r="E38">
-        <v>-0.001571987152619676</v>
+        <v>-0.006648371624458967</v>
       </c>
       <c r="F38">
-        <v>0.01059957154917389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01120651660384129</v>
+      </c>
+      <c r="G38">
+        <v>0.02577969684206383</v>
+      </c>
+      <c r="H38">
+        <v>-0.02253674668860427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03922097154529215</v>
+        <v>0.02892423325024073</v>
       </c>
       <c r="C39">
-        <v>-0.0241441485533846</v>
+        <v>0.01062984040636304</v>
       </c>
       <c r="D39">
-        <v>-0.02863006463531186</v>
+        <v>-0.06226082605391865</v>
       </c>
       <c r="E39">
-        <v>0.0369647890722746</v>
+        <v>0.005226719061828918</v>
       </c>
       <c r="F39">
-        <v>0.04642259016727519</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04937506948347755</v>
+      </c>
+      <c r="G39">
+        <v>0.04649402571965294</v>
+      </c>
+      <c r="H39">
+        <v>-0.0529689092404721</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03525236907266222</v>
+        <v>0.03373287642035513</v>
       </c>
       <c r="C40">
-        <v>-0.04100973279297252</v>
+        <v>0.009956065978394803</v>
       </c>
       <c r="D40">
-        <v>-0.05300939708494761</v>
+        <v>-0.02313439095423675</v>
       </c>
       <c r="E40">
-        <v>0.05653210712572713</v>
+        <v>0.02105731783491165</v>
       </c>
       <c r="F40">
-        <v>0.07722789080649807</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.04161323356703476</v>
+      </c>
+      <c r="G40">
+        <v>0.03847968974918</v>
+      </c>
+      <c r="H40">
+        <v>-0.05321311576687766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001259281274417067</v>
+        <v>0.007544958058630908</v>
       </c>
       <c r="C41">
-        <v>0.006055474679249188</v>
+        <v>-5.571809039344759e-05</v>
       </c>
       <c r="D41">
-        <v>-0.0101199805213445</v>
+        <v>0.004669419178674659</v>
       </c>
       <c r="E41">
-        <v>0.02636496092058179</v>
+        <v>0.001361210737300868</v>
       </c>
       <c r="F41">
-        <v>0.02077395814308372</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.002511600651019047</v>
+      </c>
+      <c r="G41">
+        <v>0.009956166140057683</v>
+      </c>
+      <c r="H41">
+        <v>0.01599775647258831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3836186417125351</v>
+        <v>0.2430729642689596</v>
       </c>
       <c r="C42">
-        <v>0.8714198567464546</v>
+        <v>-0.04784097648039222</v>
       </c>
       <c r="D42">
-        <v>-0.2043048626270829</v>
+        <v>-0.579309099342736</v>
       </c>
       <c r="E42">
-        <v>-0.1368449780737729</v>
+        <v>0.09209000888384349</v>
       </c>
       <c r="F42">
-        <v>-0.01539332182015271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.7549250867153515</v>
+      </c>
+      <c r="G42">
+        <v>-0.07214300925946526</v>
+      </c>
+      <c r="H42">
+        <v>-0.0329565356213563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.008738137250291659</v>
+        <v>0.004756377504694508</v>
       </c>
       <c r="C43">
-        <v>0.002479444989333046</v>
+        <v>-0.003080375693009067</v>
       </c>
       <c r="D43">
-        <v>-0.01441732311517884</v>
+        <v>0.007099228506733934</v>
       </c>
       <c r="E43">
-        <v>0.02508442519697341</v>
+        <v>0.005259848349003865</v>
       </c>
       <c r="F43">
-        <v>0.03348043549405461</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.007224708177950132</v>
+      </c>
+      <c r="G43">
+        <v>0.01703482330859228</v>
+      </c>
+      <c r="H43">
+        <v>0.009348384649897398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02426543194261415</v>
+        <v>0.01429125498762656</v>
       </c>
       <c r="C44">
-        <v>-0.007634760440805009</v>
+        <v>0.003361397632440867</v>
       </c>
       <c r="D44">
-        <v>-0.02798387281302073</v>
+        <v>-0.02876308743098344</v>
       </c>
       <c r="E44">
-        <v>0.0797071423470006</v>
+        <v>-0.002093648207970132</v>
       </c>
       <c r="F44">
-        <v>0.1795208217480238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01260055086961779</v>
+      </c>
+      <c r="G44">
+        <v>0.08781180282522928</v>
+      </c>
+      <c r="H44">
+        <v>-0.02141494460902628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01870388989172538</v>
+        <v>0.02230907890755554</v>
       </c>
       <c r="C46">
-        <v>-0.02169110308142558</v>
+        <v>0.003493135342891314</v>
       </c>
       <c r="D46">
-        <v>-0.01895538656955817</v>
+        <v>-0.008137277281905267</v>
       </c>
       <c r="E46">
-        <v>0.0557602241654644</v>
+        <v>0.0053060104520452</v>
       </c>
       <c r="F46">
-        <v>0.04935404928932272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.0354560234886059</v>
+      </c>
+      <c r="G46">
+        <v>0.04771873388137887</v>
+      </c>
+      <c r="H46">
+        <v>0.01255826730964444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09481505979672421</v>
+        <v>0.0726119276471303</v>
       </c>
       <c r="C47">
-        <v>-0.03693453070220137</v>
+        <v>0.04744663407529234</v>
       </c>
       <c r="D47">
-        <v>-0.0249108052784064</v>
+        <v>-0.0196620014518993</v>
       </c>
       <c r="E47">
-        <v>0.04348021743082545</v>
+        <v>0.008803745490909258</v>
       </c>
       <c r="F47">
-        <v>-0.003806858960917176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03226152401021445</v>
+      </c>
+      <c r="G47">
+        <v>-0.01617741602309824</v>
+      </c>
+      <c r="H47">
+        <v>0.02816582052641697</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01053384797881284</v>
+        <v>0.01730226043647641</v>
       </c>
       <c r="C48">
-        <v>-0.007389137243879036</v>
+        <v>0.009142753296335304</v>
       </c>
       <c r="D48">
-        <v>-0.01534359617089124</v>
+        <v>-0.005617145645881109</v>
       </c>
       <c r="E48">
-        <v>0.04810583043844403</v>
+        <v>0.001641157830027559</v>
       </c>
       <c r="F48">
-        <v>0.04746684286597494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01379134907168946</v>
+      </c>
+      <c r="G48">
+        <v>0.02879620030668787</v>
+      </c>
+      <c r="H48">
+        <v>-0.006339882464666367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08669744265233797</v>
+        <v>0.06725616864240881</v>
       </c>
       <c r="C50">
-        <v>-0.02277674758625902</v>
+        <v>0.04095513606514434</v>
       </c>
       <c r="D50">
-        <v>-0.03756306427487583</v>
+        <v>-0.03322440807875816</v>
       </c>
       <c r="E50">
-        <v>0.04336808007248261</v>
+        <v>-0.004789751049665297</v>
       </c>
       <c r="F50">
-        <v>0.01616970598073254</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03054666723908463</v>
+      </c>
+      <c r="G50">
+        <v>0.01517058303661258</v>
+      </c>
+      <c r="H50">
+        <v>0.02241213131006887</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04578953934357077</v>
+        <v>0.02842656023064771</v>
       </c>
       <c r="C51">
-        <v>-0.002595187695672733</v>
+        <v>0.007342725111952073</v>
       </c>
       <c r="D51">
-        <v>-0.04826713296275068</v>
+        <v>0.0003425738938322703</v>
       </c>
       <c r="E51">
-        <v>0.03256943835448904</v>
+        <v>0.01354512967069475</v>
       </c>
       <c r="F51">
-        <v>0.1589638148266555</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01295497312145327</v>
+      </c>
+      <c r="G51">
+        <v>0.08801132633478245</v>
+      </c>
+      <c r="H51">
+        <v>-0.03048359036406274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1066693762439652</v>
+        <v>0.09515321649030339</v>
       </c>
       <c r="C53">
-        <v>-0.04971514229581796</v>
+        <v>0.06118741214657986</v>
       </c>
       <c r="D53">
-        <v>-0.04229494722779546</v>
+        <v>-0.0426365581265292</v>
       </c>
       <c r="E53">
-        <v>0.05171153315895659</v>
+        <v>0.008368654876565483</v>
       </c>
       <c r="F53">
-        <v>-0.06456621801472849</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06299734986277505</v>
+      </c>
+      <c r="G53">
+        <v>-0.06081118060486666</v>
+      </c>
+      <c r="H53">
+        <v>0.03452452691658601</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02409227827078261</v>
+        <v>0.02241202082245395</v>
       </c>
       <c r="C54">
-        <v>-0.03927527093933122</v>
+        <v>0.01816292599821583</v>
       </c>
       <c r="D54">
-        <v>-0.003394445007846791</v>
+        <v>0.0227431249442071</v>
       </c>
       <c r="E54">
-        <v>0.03842790106759279</v>
+        <v>-0.002009805815343007</v>
       </c>
       <c r="F54">
-        <v>0.06931820468924492</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01524038666860905</v>
+      </c>
+      <c r="G54">
+        <v>0.04345209906121363</v>
+      </c>
+      <c r="H54">
+        <v>0.0206964297748677</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1032493309861231</v>
+        <v>0.08229001305728048</v>
       </c>
       <c r="C55">
-        <v>-0.03357371434324637</v>
+        <v>0.05372654444679555</v>
       </c>
       <c r="D55">
-        <v>0.001277899232179583</v>
+        <v>-0.04328448983453705</v>
       </c>
       <c r="E55">
-        <v>0.0549370721958788</v>
+        <v>-0.004679180014907055</v>
       </c>
       <c r="F55">
-        <v>-0.06386307261738039</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05256690013112213</v>
+      </c>
+      <c r="G55">
+        <v>-0.03995295062083969</v>
+      </c>
+      <c r="H55">
+        <v>0.05051483487168625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1436043850795764</v>
+        <v>0.1233990088866791</v>
       </c>
       <c r="C56">
-        <v>-0.0754061390494536</v>
+        <v>0.0862208287576518</v>
       </c>
       <c r="D56">
-        <v>-0.02151420863714522</v>
+        <v>-0.05374949018627809</v>
       </c>
       <c r="E56">
-        <v>0.06039820410252632</v>
+        <v>0.003870681565079099</v>
       </c>
       <c r="F56">
-        <v>-0.1628899662005245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.08618534295697244</v>
+      </c>
+      <c r="G56">
+        <v>-0.1040668452463746</v>
+      </c>
+      <c r="H56">
+        <v>0.02643973027679575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04616997217189484</v>
+        <v>0.04469593116222418</v>
       </c>
       <c r="C57">
-        <v>-0.01898167660309239</v>
+        <v>0.0005755253786220088</v>
       </c>
       <c r="D57">
-        <v>-0.03270296227591805</v>
+        <v>-0.02111788200991986</v>
       </c>
       <c r="E57">
-        <v>0.03347463512490606</v>
+        <v>0.01329621502251374</v>
       </c>
       <c r="F57">
-        <v>0.07941264003732514</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02887224830671381</v>
+      </c>
+      <c r="G57">
+        <v>0.06685958184300669</v>
+      </c>
+      <c r="H57">
+        <v>-0.01555682776973592</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.214297991284181</v>
+        <v>0.1601065948626425</v>
       </c>
       <c r="C58">
-        <v>-0.06968778293472584</v>
+        <v>0.08540475052709434</v>
       </c>
       <c r="D58">
-        <v>-0.1146370127987261</v>
+        <v>-0.1136682631617909</v>
       </c>
       <c r="E58">
-        <v>0.1654478440026853</v>
+        <v>0.1264536276745254</v>
       </c>
       <c r="F58">
-        <v>0.2728511932833385</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.05784714303007942</v>
+      </c>
+      <c r="G58">
+        <v>0.6669834974776844</v>
+      </c>
+      <c r="H58">
+        <v>0.5640208710489629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.07041069288707447</v>
+        <v>0.1084461451178719</v>
       </c>
       <c r="C59">
-        <v>-0.08852309393969443</v>
+        <v>0.05037454073138162</v>
       </c>
       <c r="D59">
-        <v>0.04682996807919901</v>
+        <v>0.2155565698302659</v>
       </c>
       <c r="E59">
-        <v>-0.1420120060417814</v>
+        <v>0.03270301044400849</v>
       </c>
       <c r="F59">
-        <v>0.0639724872915181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.09667842252541659</v>
+      </c>
+      <c r="G59">
+        <v>0.02894712300011685</v>
+      </c>
+      <c r="H59">
+        <v>-0.02579371146030105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1681378035638824</v>
+        <v>0.1629004328663574</v>
       </c>
       <c r="C60">
-        <v>-0.07610013037706001</v>
+        <v>0.07461371003797433</v>
       </c>
       <c r="D60">
-        <v>-0.05766532980602139</v>
+        <v>0.007722720660299936</v>
       </c>
       <c r="E60">
-        <v>0.006917568590233567</v>
+        <v>0.05835437779696828</v>
       </c>
       <c r="F60">
-        <v>0.09136054602444606</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.06855290013816764</v>
+      </c>
+      <c r="G60">
+        <v>0.1204292992669085</v>
+      </c>
+      <c r="H60">
+        <v>-0.3531554610646877</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02196680883657932</v>
+        <v>0.02427866418363893</v>
       </c>
       <c r="C61">
-        <v>-0.0117477101202266</v>
+        <v>0.01330405436614929</v>
       </c>
       <c r="D61">
-        <v>-0.005374716372257981</v>
+        <v>-0.03280754626843586</v>
       </c>
       <c r="E61">
-        <v>0.02604921764869624</v>
+        <v>-0.0009081627226697567</v>
       </c>
       <c r="F61">
-        <v>0.0415644172864444</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03535358569163901</v>
+      </c>
+      <c r="G61">
+        <v>0.03052200798626107</v>
+      </c>
+      <c r="H61">
+        <v>-0.03930778641442333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.02060288582361601</v>
+        <v>0.01637598208272303</v>
       </c>
       <c r="C63">
-        <v>-0.01996775425319665</v>
+        <v>0.003213680513161378</v>
       </c>
       <c r="D63">
-        <v>-0.01843867779417433</v>
+        <v>-0.009130469830077873</v>
       </c>
       <c r="E63">
-        <v>0.05136478430736349</v>
+        <v>0.0003568854816533437</v>
       </c>
       <c r="F63">
-        <v>0.01949253775167305</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02602100588133341</v>
+      </c>
+      <c r="G63">
+        <v>0.01948409894550809</v>
+      </c>
+      <c r="H63">
+        <v>0.00555520494233793</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04779670384179965</v>
+        <v>0.04665000679788076</v>
       </c>
       <c r="C64">
-        <v>-0.02924788606409388</v>
+        <v>0.02452145231284946</v>
       </c>
       <c r="D64">
-        <v>7.321698641439069e-05</v>
+        <v>-0.03712723648454776</v>
       </c>
       <c r="E64">
-        <v>0.09499645443273372</v>
+        <v>-0.008188934162693158</v>
       </c>
       <c r="F64">
-        <v>0.03331290552477651</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04413277203320251</v>
+      </c>
+      <c r="G64">
+        <v>0.01794469825179098</v>
+      </c>
+      <c r="H64">
+        <v>-0.03530633440129746</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.009523257421684639</v>
+        <v>0.03582717899453313</v>
       </c>
       <c r="C65">
-        <v>0.001000985676086059</v>
+        <v>0.004397871938307418</v>
       </c>
       <c r="D65">
-        <v>-0.008264094600470423</v>
+        <v>-0.03350111722954675</v>
       </c>
       <c r="E65">
-        <v>0.0002233910362554837</v>
+        <v>-0.003458831838484381</v>
       </c>
       <c r="F65">
-        <v>0.007697972828877448</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03753060262618089</v>
+      </c>
+      <c r="G65">
+        <v>-0.003040030031930773</v>
+      </c>
+      <c r="H65">
+        <v>-0.06108603586398074</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04458798962057234</v>
+        <v>0.03753285519596868</v>
       </c>
       <c r="C66">
-        <v>-0.02893764619999076</v>
+        <v>0.01894091812036853</v>
       </c>
       <c r="D66">
-        <v>-0.02699491711641041</v>
+        <v>-0.07081246051752263</v>
       </c>
       <c r="E66">
-        <v>0.05522382131951604</v>
+        <v>0.01249657968506884</v>
       </c>
       <c r="F66">
-        <v>0.04643374727626063</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07115924176136697</v>
+      </c>
+      <c r="G66">
+        <v>0.041243853697549</v>
+      </c>
+      <c r="H66">
+        <v>-0.06463105474444256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02638189197111736</v>
+        <v>0.03263764735917109</v>
       </c>
       <c r="C67">
-        <v>-0.009464190408933374</v>
+        <v>0.0252402261930605</v>
       </c>
       <c r="D67">
-        <v>0.01650186156741649</v>
+        <v>0.009661025149468762</v>
       </c>
       <c r="E67">
-        <v>-0.02230935566797485</v>
+        <v>-0.001608076905642915</v>
       </c>
       <c r="F67">
-        <v>0.02205478598862543</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01201910920060952</v>
+      </c>
+      <c r="G67">
+        <v>0.01668524208299645</v>
+      </c>
+      <c r="H67">
+        <v>-0.03500757601140426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07933172232757869</v>
+        <v>0.110311213594848</v>
       </c>
       <c r="C68">
-        <v>-0.07108920210798791</v>
+        <v>0.02812417680355744</v>
       </c>
       <c r="D68">
-        <v>0.06607949123317863</v>
+        <v>0.2042717907993098</v>
       </c>
       <c r="E68">
-        <v>-0.1833232560419821</v>
+        <v>0.02621369031224236</v>
       </c>
       <c r="F68">
-        <v>0.02014778213773985</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.1157139599374857</v>
+      </c>
+      <c r="G68">
+        <v>0.02067039287492789</v>
+      </c>
+      <c r="H68">
+        <v>0.04624637993368961</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07251328681128374</v>
+        <v>0.05698458381113367</v>
       </c>
       <c r="C69">
-        <v>-0.03659833412305771</v>
+        <v>0.04221251015680863</v>
       </c>
       <c r="D69">
-        <v>-0.02352867918313674</v>
+        <v>-0.01622503282411364</v>
       </c>
       <c r="E69">
-        <v>0.007774432197777115</v>
+        <v>0.009327142439360132</v>
       </c>
       <c r="F69">
-        <v>0.01824078527059641</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02963670235265508</v>
+      </c>
+      <c r="G69">
+        <v>-0.004633927953236948</v>
+      </c>
+      <c r="H69">
+        <v>0.008395624443249676</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.09218601662553325</v>
+        <v>0.107192277701713</v>
       </c>
       <c r="C71">
-        <v>-0.07365507781899035</v>
+        <v>0.03717600186382281</v>
       </c>
       <c r="D71">
-        <v>0.0446947181454771</v>
+        <v>0.1929665515927318</v>
       </c>
       <c r="E71">
-        <v>-0.2300674830878242</v>
+        <v>0.02952216364455476</v>
       </c>
       <c r="F71">
-        <v>0.05885833622184757</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.1257358038386659</v>
+      </c>
+      <c r="G71">
+        <v>0.02622548283315861</v>
+      </c>
+      <c r="H71">
+        <v>0.017580705687485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1068162606886377</v>
+        <v>0.08771502045073896</v>
       </c>
       <c r="C72">
-        <v>-0.1172306501487307</v>
+        <v>0.06597223726740883</v>
       </c>
       <c r="D72">
-        <v>-0.01819209529282404</v>
+        <v>-0.04698869256888977</v>
       </c>
       <c r="E72">
-        <v>0.07371088680075265</v>
+        <v>0.0161944695498198</v>
       </c>
       <c r="F72">
-        <v>0.05080341401164835</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1230949908216835</v>
+      </c>
+      <c r="G72">
+        <v>0.0755940658278059</v>
+      </c>
+      <c r="H72">
+        <v>-0.1415093121940017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2398859412280978</v>
+        <v>0.2272330369663135</v>
       </c>
       <c r="C73">
-        <v>-0.1056280175801461</v>
+        <v>0.09748616756687793</v>
       </c>
       <c r="D73">
-        <v>-0.04284152531007455</v>
+        <v>-0.008934786427023368</v>
       </c>
       <c r="E73">
-        <v>-0.06293103621854142</v>
+        <v>0.09183170643388995</v>
       </c>
       <c r="F73">
-        <v>0.1986912955050872</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.06913255321570937</v>
+      </c>
+      <c r="G73">
+        <v>0.1758109544407711</v>
+      </c>
+      <c r="H73">
+        <v>-0.5057280551414043</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1215393811757973</v>
+        <v>0.1100416894812952</v>
       </c>
       <c r="C74">
-        <v>-0.03922710144471749</v>
+        <v>0.07609293996920213</v>
       </c>
       <c r="D74">
-        <v>-0.02500274684397873</v>
+        <v>-0.0524710499514402</v>
       </c>
       <c r="E74">
-        <v>0.02753792229263226</v>
+        <v>0.009969935970178345</v>
       </c>
       <c r="F74">
-        <v>-0.1194909747277246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06676059426252356</v>
+      </c>
+      <c r="G74">
+        <v>-0.09237569201103725</v>
+      </c>
+      <c r="H74">
+        <v>0.001818551293830858</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2209345934953188</v>
+        <v>0.218004553596776</v>
       </c>
       <c r="C75">
-        <v>-0.113248741796932</v>
+        <v>0.1529730103018195</v>
       </c>
       <c r="D75">
-        <v>-0.06365249842617558</v>
+        <v>-0.06041001541508335</v>
       </c>
       <c r="E75">
-        <v>0.05982921807584986</v>
+        <v>0.03689047981529884</v>
       </c>
       <c r="F75">
-        <v>-0.1878436273937327</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1300205067153259</v>
+      </c>
+      <c r="G75">
+        <v>-0.1660115025142264</v>
+      </c>
+      <c r="H75">
+        <v>0.09228369428136377</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2614165549583604</v>
+        <v>0.2098978748150216</v>
       </c>
       <c r="C76">
-        <v>-0.1284265412501477</v>
+        <v>0.1509242460288446</v>
       </c>
       <c r="D76">
-        <v>-0.005323876509738902</v>
+        <v>-0.0637019291325865</v>
       </c>
       <c r="E76">
-        <v>0.0542328257591122</v>
+        <v>-0.003542378456200427</v>
       </c>
       <c r="F76">
-        <v>-0.2113638547694189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1382928113813822</v>
+      </c>
+      <c r="G76">
+        <v>-0.1814276986300629</v>
+      </c>
+      <c r="H76">
+        <v>0.1003091974677331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1417923626173482</v>
+        <v>0.08093208189396084</v>
       </c>
       <c r="C77">
-        <v>0.02001939816652351</v>
+        <v>0.02935963676735871</v>
       </c>
       <c r="D77">
-        <v>-0.0680143025306901</v>
+        <v>-0.07984833986985133</v>
       </c>
       <c r="E77">
-        <v>0.09819930096801442</v>
+        <v>0.01399908163676182</v>
       </c>
       <c r="F77">
-        <v>0.1920528506650171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.005154065767069842</v>
+      </c>
+      <c r="G77">
+        <v>0.1236443626630614</v>
+      </c>
+      <c r="H77">
+        <v>0.0510866248558117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05523980307077352</v>
+        <v>0.03976684803286119</v>
       </c>
       <c r="C78">
-        <v>-0.01296014706497594</v>
+        <v>0.02064582380887879</v>
       </c>
       <c r="D78">
-        <v>-0.03028386260758642</v>
+        <v>-0.05012725115625525</v>
       </c>
       <c r="E78">
-        <v>0.09993975318700156</v>
+        <v>-0.001843333110550268</v>
       </c>
       <c r="F78">
-        <v>0.03425393904677644</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04953934299170503</v>
+      </c>
+      <c r="G78">
+        <v>0.04945647872066711</v>
+      </c>
+      <c r="H78">
+        <v>-0.03428596226880913</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1967832725129521</v>
+        <v>0.1743986806075934</v>
       </c>
       <c r="C80">
-        <v>0.1815255178867596</v>
+        <v>0.08962604377976836</v>
       </c>
       <c r="D80">
-        <v>0.9068379729469644</v>
+        <v>-0.009726203703371674</v>
       </c>
       <c r="E80">
-        <v>0.2878742111449266</v>
+        <v>-0.9632078774705101</v>
       </c>
       <c r="F80">
-        <v>0.0290834137967764</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.07655125574683945</v>
+      </c>
+      <c r="G80">
+        <v>0.1033110944001792</v>
+      </c>
+      <c r="H80">
+        <v>-0.007131524941620974</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1551656166159477</v>
+        <v>0.1474968693225838</v>
       </c>
       <c r="C81">
-        <v>-0.1002181974180359</v>
+        <v>0.1036581092281236</v>
       </c>
       <c r="D81">
-        <v>-0.02066545534419666</v>
+        <v>-0.03701858763544223</v>
       </c>
       <c r="E81">
-        <v>0.04252616107168822</v>
+        <v>0.01057942884707733</v>
       </c>
       <c r="F81">
-        <v>-0.1984530268027176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.09681331307335392</v>
+      </c>
+      <c r="G81">
+        <v>-0.1219198210802157</v>
+      </c>
+      <c r="H81">
+        <v>0.07936046651452326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05479993913897049</v>
+        <v>0.04044835083717398</v>
       </c>
       <c r="C83">
-        <v>0.009464380034384262</v>
+        <v>0.01729202241695069</v>
       </c>
       <c r="D83">
-        <v>-0.04018828775717712</v>
+        <v>-0.02251376416401135</v>
       </c>
       <c r="E83">
-        <v>0.0473914905705911</v>
+        <v>0.01403656063859649</v>
       </c>
       <c r="F83">
-        <v>0.07606647077918957</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01373494108372362</v>
+      </c>
+      <c r="G83">
+        <v>0.05767612688489499</v>
+      </c>
+      <c r="H83">
+        <v>-0.0237096838911909</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2329833445467989</v>
+        <v>0.2112003213748147</v>
       </c>
       <c r="C85">
-        <v>-0.09847471096176658</v>
+        <v>0.1345425680708088</v>
       </c>
       <c r="D85">
-        <v>-0.03372182413959196</v>
+        <v>-0.08390068496825603</v>
       </c>
       <c r="E85">
-        <v>0.04792239729826737</v>
+        <v>0.02499176432366184</v>
       </c>
       <c r="F85">
-        <v>-0.2013589500648394</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1241468010633558</v>
+      </c>
+      <c r="G85">
+        <v>-0.16920793948332</v>
+      </c>
+      <c r="H85">
+        <v>0.06646285205405868</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.001777679054094997</v>
+        <v>0.009328490501937433</v>
       </c>
       <c r="C86">
-        <v>0.005096740052793469</v>
+        <v>-0.0008383964971053216</v>
       </c>
       <c r="D86">
-        <v>-0.01120131487147161</v>
+        <v>-0.01627018191525669</v>
       </c>
       <c r="E86">
-        <v>0.07902583156845892</v>
+        <v>0.005697280622248939</v>
       </c>
       <c r="F86">
-        <v>0.06942482313615736</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01451318526238976</v>
+      </c>
+      <c r="G86">
+        <v>0.07629800994514768</v>
+      </c>
+      <c r="H86">
+        <v>-0.04669811345541639</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02885330655106946</v>
+        <v>0.02772634492622596</v>
       </c>
       <c r="C87">
-        <v>-0.009313703138440745</v>
+        <v>0.009290707154569288</v>
       </c>
       <c r="D87">
-        <v>-0.005635240731348331</v>
+        <v>-0.023145470164482</v>
       </c>
       <c r="E87">
-        <v>0.03194851095323464</v>
+        <v>0.0009931826541447187</v>
       </c>
       <c r="F87">
-        <v>0.0632325073182049</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02711855165051435</v>
+      </c>
+      <c r="G87">
+        <v>0.08726457869463855</v>
+      </c>
+      <c r="H87">
+        <v>-0.0325233733869775</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.008449290543629221</v>
+        <v>0.03856788270054943</v>
       </c>
       <c r="C88">
-        <v>-0.02068111170668934</v>
+        <v>-0.002613140985058061</v>
       </c>
       <c r="D88">
-        <v>0.02156469652706842</v>
+        <v>0.01137109058311933</v>
       </c>
       <c r="E88">
-        <v>0.003176419485073146</v>
+        <v>-0.005500959143339408</v>
       </c>
       <c r="F88">
-        <v>0.03475696703208397</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01245152243582321</v>
+      </c>
+      <c r="G88">
+        <v>-0.003536554812880883</v>
+      </c>
+      <c r="H88">
+        <v>-0.0151813106430618</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1092190411293281</v>
+        <v>0.1707177079843483</v>
       </c>
       <c r="C89">
-        <v>-0.08964060970263578</v>
+        <v>0.05468751321754822</v>
       </c>
       <c r="D89">
-        <v>0.05752588115563217</v>
+        <v>0.3383522603094928</v>
       </c>
       <c r="E89">
-        <v>-0.3027910155126519</v>
+        <v>0.06618151355626062</v>
       </c>
       <c r="F89">
-        <v>0.1213566237994955</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.1835587615447953</v>
+      </c>
+      <c r="G89">
+        <v>0.02131276256357651</v>
+      </c>
+      <c r="H89">
+        <v>0.01405950238187392</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1003601948988609</v>
+        <v>0.1328229220244841</v>
       </c>
       <c r="C90">
-        <v>-0.08800440279963463</v>
+        <v>0.04177362347082465</v>
       </c>
       <c r="D90">
-        <v>0.1113795534003192</v>
+        <v>0.2917191528157806</v>
       </c>
       <c r="E90">
-        <v>-0.2782231767997533</v>
+        <v>0.03712600138602417</v>
       </c>
       <c r="F90">
-        <v>0.07710908064998817</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.1759034222361239</v>
+      </c>
+      <c r="G90">
+        <v>-0.01778143263520688</v>
+      </c>
+      <c r="H90">
+        <v>0.03761164957711664</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2886467181604851</v>
+        <v>0.2306698211640152</v>
       </c>
       <c r="C91">
-        <v>-0.1000725405571017</v>
+        <v>0.1588154091250668</v>
       </c>
       <c r="D91">
-        <v>-0.0565226537669269</v>
+        <v>-0.0756987856016505</v>
       </c>
       <c r="E91">
-        <v>0.02043594238891376</v>
+        <v>0.03124069332387697</v>
       </c>
       <c r="F91">
-        <v>-0.2551413828717965</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1251922133844107</v>
+      </c>
+      <c r="G91">
+        <v>-0.2213426240173039</v>
+      </c>
+      <c r="H91">
+        <v>0.1220459313189964</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1678121001398288</v>
+        <v>0.1934475667973596</v>
       </c>
       <c r="C92">
-        <v>-0.07798566134043802</v>
+        <v>0.1259498840214057</v>
       </c>
       <c r="D92">
-        <v>0.1384389799125117</v>
+        <v>0.2602502974926137</v>
       </c>
       <c r="E92">
-        <v>-0.4074988623159271</v>
+        <v>0.02768853359979494</v>
       </c>
       <c r="F92">
-        <v>0.1476040089164628</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.156504191782448</v>
+      </c>
+      <c r="G92">
+        <v>-0.03133089868539664</v>
+      </c>
+      <c r="H92">
+        <v>0.1319579504734813</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1102059226008341</v>
+        <v>0.1533670968361788</v>
       </c>
       <c r="C93">
-        <v>-0.0725316763486288</v>
+        <v>0.05589362331605741</v>
       </c>
       <c r="D93">
-        <v>0.1217551061842233</v>
+        <v>0.3152660964333475</v>
       </c>
       <c r="E93">
-        <v>-0.3819238340228739</v>
+        <v>0.05349825358597397</v>
       </c>
       <c r="F93">
-        <v>0.04843667214413325</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.2170814420209935</v>
+      </c>
+      <c r="G93">
+        <v>-0.02224014295623649</v>
+      </c>
+      <c r="H93">
+        <v>-0.018530196101146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2582510107929818</v>
+        <v>0.2489742421961634</v>
       </c>
       <c r="C94">
-        <v>-0.1249118997835114</v>
+        <v>0.1494480807696243</v>
       </c>
       <c r="D94">
-        <v>-0.01794048552385631</v>
+        <v>-0.04889204234474283</v>
       </c>
       <c r="E94">
-        <v>0.02886344509216355</v>
+        <v>0.0454856440944565</v>
       </c>
       <c r="F94">
-        <v>-0.3089525786975305</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1332618587043323</v>
+      </c>
+      <c r="G94">
+        <v>-0.2389243227725938</v>
+      </c>
+      <c r="H94">
+        <v>0.1291439689717971</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1013402819346846</v>
+        <v>0.07207323655807925</v>
       </c>
       <c r="C95">
-        <v>-0.03014664207365029</v>
+        <v>0.05286697961883872</v>
       </c>
       <c r="D95">
-        <v>-0.0773271629325184</v>
+        <v>-0.07475454070410886</v>
       </c>
       <c r="E95">
-        <v>0.1090737365471657</v>
+        <v>0.07765783782825722</v>
       </c>
       <c r="F95">
-        <v>0.06489200101816259</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.03280025877358784</v>
+      </c>
+      <c r="G95">
+        <v>0.07286936636003061</v>
+      </c>
+      <c r="H95">
+        <v>-0.01636832502476903</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1832437674482208</v>
+        <v>0.1670546090051921</v>
       </c>
       <c r="C98">
-        <v>-0.0557773216001852</v>
+        <v>0.1055397240718322</v>
       </c>
       <c r="D98">
-        <v>-0.03388093202851961</v>
+        <v>-0.001331728352753893</v>
       </c>
       <c r="E98">
-        <v>-0.08350329597035357</v>
+        <v>0.06281401501859631</v>
       </c>
       <c r="F98">
-        <v>0.09101117405986232</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.02312810742107545</v>
+      </c>
+      <c r="G98">
+        <v>0.1527424972066413</v>
+      </c>
+      <c r="H98">
+        <v>-0.3595696510174967</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007030524529531018</v>
+        <v>0.01526737392155971</v>
       </c>
       <c r="C101">
-        <v>-0.02877358242279827</v>
+        <v>0.004030609401305054</v>
       </c>
       <c r="D101">
-        <v>-0.01940744549934564</v>
+        <v>-0.007384759038560679</v>
       </c>
       <c r="E101">
-        <v>0.1155895692811626</v>
+        <v>-0.002335835659226959</v>
       </c>
       <c r="F101">
-        <v>0.1630805837669441</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03931238486108779</v>
+      </c>
+      <c r="G101">
+        <v>0.0946700138072394</v>
+      </c>
+      <c r="H101">
+        <v>0.0688598231597853</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1015674294039446</v>
+        <v>0.1097912580996751</v>
       </c>
       <c r="C102">
-        <v>-0.02940704924247926</v>
+        <v>0.0621197416317505</v>
       </c>
       <c r="D102">
-        <v>-0.020388543559565</v>
+        <v>-0.04458356072997609</v>
       </c>
       <c r="E102">
-        <v>0.07639972493711249</v>
+        <v>0.006951513041724379</v>
       </c>
       <c r="F102">
-        <v>-0.1419994399118575</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06801221406750928</v>
+      </c>
+      <c r="G102">
+        <v>-0.1010472674673762</v>
+      </c>
+      <c r="H102">
+        <v>0.06158198034480435</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.0255934727209853</v>
+        <v>0.02266720037640886</v>
       </c>
       <c r="C103">
-        <v>-0.008729120076003197</v>
+        <v>0.0137702278737804</v>
       </c>
       <c r="D103">
-        <v>-0.006825908861316629</v>
+        <v>-0.01078110211658984</v>
       </c>
       <c r="E103">
-        <v>0.009892569843740364</v>
+        <v>-0.005998783620379031</v>
       </c>
       <c r="F103">
-        <v>-0.02785265208829349</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01571897516444007</v>
+      </c>
+      <c r="G103">
+        <v>-0.01092936052318507</v>
+      </c>
+      <c r="H103">
+        <v>0.008364818517260512</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.452679742319267</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.8692023816675244</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.05002786663436277</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.01572129708696031</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1579904788748531</v>
+      </c>
+      <c r="G104">
+        <v>-0.04216264923675812</v>
+      </c>
+      <c r="H104">
+        <v>0.03569396078406592</v>
       </c>
     </row>
   </sheetData>
